--- a/src/projet/planning et journal.xlsx
+++ b/src/projet/planning et journal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/leon_bergmann_studentfr_ch/Documents/151/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151-BergmannL\module-151-Bergmann\src\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="13_ncr:1_{31D7CAE5-9511-4975-89EF-737ED1D9265B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413FC6B4-E825-4D01-9425-DFDD4ECE5B47}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F030C-E8D5-4CCE-AE69-FB65DE19A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>Tâches</t>
   </si>
@@ -439,12 +439,39 @@
   <si>
     <t>implemented the function to delete existing builds</t>
   </si>
+  <si>
+    <t>remediation</t>
+  </si>
+  <si>
+    <t>05.05.2025 - MAT</t>
+  </si>
+  <si>
+    <t>05.05.2025 - A-M</t>
+  </si>
+  <si>
+    <t>06.05.2025 - MAT</t>
+  </si>
+  <si>
+    <t>finished the functionality to save builds</t>
+  </si>
+  <si>
+    <t>added a transaction system and character cleaner to prevent conflicts and injections</t>
+  </si>
+  <si>
+    <t>finished the documentation of the project and updated the journal</t>
+  </si>
+  <si>
+    <t>tested the application according to the concept</t>
+  </si>
+  <si>
+    <t>completed the hebergement on the web server</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,6 +555,12 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -941,10 +974,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,10 +1266,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1249,7 +1278,7 @@
     <col min="2" max="16" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
@@ -1269,8 +1298,8 @@
       <c r="O1" s="34"/>
       <c r="P1" s="34"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1295,7 +1324,7 @@
       </c>
       <c r="P3" s="37"/>
     </row>
-    <row r="4" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1319,8 +1348,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
@@ -1346,8 +1375,13 @@
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="39"/>
+      <c r="S7" s="40"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1396,8 +1430,17 @@
       <c r="P8" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1422,8 +1465,11 @@
       <c r="N9" s="24"/>
       <c r="O9" s="25"/>
       <c r="P9" s="26"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="24"/>
       <c r="C10" s="25"/>
@@ -1440,8 +1486,11 @@
       <c r="N10" s="24"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
@@ -1460,8 +1509,11 @@
       <c r="N11" s="24"/>
       <c r="O11" s="25"/>
       <c r="P11" s="26"/>
-    </row>
-    <row r="12" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
@@ -1482,8 +1534,11 @@
       <c r="N12" s="24"/>
       <c r="O12" s="25"/>
       <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>42</v>
       </c>
@@ -1508,8 +1563,11 @@
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
       <c r="P13" s="26"/>
-    </row>
-    <row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1532,8 +1590,11 @@
       <c r="N14" s="24"/>
       <c r="O14" s="25"/>
       <c r="P14" s="26"/>
-    </row>
-    <row r="15" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>49</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="N15" s="24"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
-    </row>
-    <row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>50</v>
       </c>
@@ -1576,8 +1640,11 @@
       <c r="N16" s="24"/>
       <c r="O16" s="25"/>
       <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -1594,8 +1661,11 @@
       <c r="N17" s="24"/>
       <c r="O17" s="25"/>
       <c r="P17" s="26"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>13</v>
       </c>
@@ -1614,8 +1684,11 @@
       <c r="N18" s="24"/>
       <c r="O18" s="25"/>
       <c r="P18" s="26"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>51</v>
       </c>
@@ -1638,8 +1711,11 @@
       <c r="N19" s="24"/>
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>52</v>
       </c>
@@ -1660,8 +1736,11 @@
       <c r="N20" s="24"/>
       <c r="O20" s="25"/>
       <c r="P20" s="26"/>
-    </row>
-    <row r="21" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
@@ -1682,8 +1761,11 @@
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
       <c r="P21" s="26"/>
-    </row>
-    <row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
@@ -1704,8 +1786,11 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
       <c r="P22" s="26"/>
-    </row>
-    <row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>55</v>
       </c>
@@ -1726,8 +1811,11 @@
       <c r="N23" s="24"/>
       <c r="O23" s="25"/>
       <c r="P23" s="26"/>
-    </row>
-    <row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q23" s="24"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -1744,8 +1832,11 @@
       <c r="N24" s="24"/>
       <c r="O24" s="25"/>
       <c r="P24" s="26"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" s="24"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
@@ -1764,8 +1855,11 @@
       <c r="N25" s="24"/>
       <c r="O25" s="25"/>
       <c r="P25" s="26"/>
-    </row>
-    <row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>56</v>
       </c>
@@ -1786,8 +1880,11 @@
       <c r="N26" s="24"/>
       <c r="O26" s="25"/>
       <c r="P26" s="26"/>
-    </row>
-    <row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -1810,8 +1907,11 @@
       <c r="N27" s="24"/>
       <c r="O27" s="25"/>
       <c r="P27" s="26"/>
-    </row>
-    <row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -1834,8 +1934,11 @@
       <c r="N28" s="24"/>
       <c r="O28" s="25"/>
       <c r="P28" s="26"/>
-    </row>
-    <row r="29" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>59</v>
       </c>
@@ -1856,8 +1959,11 @@
       <c r="N29" s="24"/>
       <c r="O29" s="25"/>
       <c r="P29" s="26"/>
-    </row>
-    <row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -1880,8 +1986,11 @@
       <c r="N30" s="24"/>
       <c r="O30" s="25"/>
       <c r="P30" s="26"/>
-    </row>
-    <row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -1902,8 +2011,11 @@
       <c r="N31" s="24"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
-    </row>
-    <row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>61</v>
       </c>
@@ -1924,8 +2036,11 @@
       <c r="N32" s="24"/>
       <c r="O32" s="25"/>
       <c r="P32" s="26"/>
-    </row>
-    <row r="33" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="26"/>
+    </row>
+    <row r="33" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -1946,8 +2061,13 @@
       <c r="N33" s="24"/>
       <c r="O33" s="25"/>
       <c r="P33" s="26"/>
-    </row>
-    <row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R33" s="25"/>
+      <c r="S33" s="26"/>
+    </row>
+    <row r="34" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
@@ -1968,8 +2088,13 @@
       <c r="N34" s="24"/>
       <c r="O34" s="25"/>
       <c r="P34" s="26"/>
-    </row>
-    <row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R34" s="25"/>
+      <c r="S34" s="26"/>
+    </row>
+    <row r="35" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
@@ -1990,8 +2115,11 @@
       <c r="N35" s="24"/>
       <c r="O35" s="25"/>
       <c r="P35" s="26"/>
-    </row>
-    <row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q35" s="24"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>66</v>
       </c>
@@ -2014,8 +2142,11 @@
       <c r="N36" s="24"/>
       <c r="O36" s="25"/>
       <c r="P36" s="26"/>
-    </row>
-    <row r="37" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q36" s="24"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="26"/>
+    </row>
+    <row r="37" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -2032,8 +2163,11 @@
       <c r="N37" s="24"/>
       <c r="O37" s="25"/>
       <c r="P37" s="26"/>
-    </row>
-    <row r="38" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q37" s="24"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="26"/>
+    </row>
+    <row r="38" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -2050,8 +2184,11 @@
       <c r="N38" s="24"/>
       <c r="O38" s="25"/>
       <c r="P38" s="26"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="26"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>15</v>
       </c>
@@ -2070,8 +2207,11 @@
       <c r="N39" s="24"/>
       <c r="O39" s="25"/>
       <c r="P39" s="26"/>
-    </row>
-    <row r="40" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q39" s="24"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="26"/>
+    </row>
+    <row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -2088,8 +2228,15 @@
       <c r="N40" s="24"/>
       <c r="O40" s="25"/>
       <c r="P40" s="26"/>
-    </row>
-    <row r="41" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="Q40" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" s="26"/>
+    </row>
+    <row r="41" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="24"/>
       <c r="C41" s="25"/>
@@ -2106,8 +2253,11 @@
       <c r="N41" s="24"/>
       <c r="O41" s="25"/>
       <c r="P41" s="26"/>
-    </row>
-    <row r="42" spans="1:16" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26"/>
+    </row>
+    <row r="42" spans="1:19" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="28"/>
       <c r="C42" s="29"/>
@@ -2124,9 +2274,13 @@
       <c r="N42" s="28"/>
       <c r="O42" s="29"/>
       <c r="P42" s="30"/>
+      <c r="Q42" s="28"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="Q7:S7"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:L4"/>
@@ -2137,8 +2291,9 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="O3:P3"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LModule 151&amp;RPlanning</oddHeader>
     <oddFooter>&amp;C&amp;D&amp;R&amp;P/&amp;N</oddFooter>
@@ -2151,10 +2306,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2614,43 +2769,103 @@
       <c r="B50" s="13"/>
       <c r="C50" s="17"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>45782</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="17"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="17">
-        <f>SUM(C8:C50)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B57" s="13"/>
+      <c r="C57" s="17">
+        <f>SUM(C8:C56)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="19" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="19" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="20" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="20" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2668,6 +2883,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -2936,32 +3176,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2978,23 +3212,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/projet/planning et journal.xlsx
+++ b/src/projet/planning et journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\151-BergmannL\module-151-Bergmann\src\projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800F030C-E8D5-4CCE-AE69-FB65DE19A9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF62297-FCAB-482F-B589-397CCD6DDF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>Tâches</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>completed the hebergement on the web server</t>
+  </si>
+  <si>
+    <t>tests fonctionel</t>
   </si>
 </sst>
 </file>
@@ -938,6 +941,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,15 +960,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1268,8 +1271,8 @@
   </sheetPr>
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A32" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1279,68 +1282,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="40"/>
       <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="35">
+      <c r="O3" s="38">
         <v>300233</v>
       </c>
-      <c r="P3" s="37"/>
+      <c r="P3" s="40"/>
     </row>
     <row r="4" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="40"/>
       <c r="N4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1350,36 +1353,36 @@
     </row>
     <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="38" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="38" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="38" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="38" t="s">
+      <c r="L7" s="35"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="38" t="s">
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="36"/>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2212,7 +2215,9 @@
       <c r="S39" s="26"/>
     </row>
     <row r="40" spans="1:19" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
@@ -2320,11 +2325,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2883,31 +2888,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
-    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
-    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010041433D532D33284694B8292187168088" ma:contentTypeVersion="20" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a6a15b9106ef78c138a0ab33249408c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xmlns:ns3="fcabc8dd-3274-4261-b688-fb49e1a84a60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f299860b08438f464b66cb389ee0528" ns2:_="" ns3:_="">
     <xsd:import namespace="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
@@ -3176,26 +3156,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
-    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <INOU_x00cf_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <NON xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <TaxCatchAll xmlns="924ebf79-8ca5-43a7-b11c-cae8c16b2b70" xsi:nil="true"/>
+    <toutvabien xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <a xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60" xsi:nil="true"/>
+    <_x002d__x002e__x002d_ xmlns="fcabc8dd-3274-4261-b688-fb49e1a84a60">.-.</_x002d__x002e__x002d_>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5622E8-3DF4-4B1B-82B9-E7FCE9ABFC72}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3212,4 +3198,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64DE997C-CC40-4C9E-895E-C18775B049B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92433B2D-0774-4141-A340-826B2CF0D0B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fcabc8dd-3274-4261-b688-fb49e1a84a60"/>
+    <ds:schemaRef ds:uri="924ebf79-8ca5-43a7-b11c-cae8c16b2b70"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>